--- a/public/iG_Template.xlsx
+++ b/public/iG_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianmalloy/Desktop/demoProjects/upload-download/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianmalloy/Desktop/demoProjects/IB_IG_class_names/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B247E1-4B53-DA41-912B-DF82FE144AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E4788-E3D4-1C46-9D9A-9C5EBD00CFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{9E93450E-D275-1246-BD36-E4141277D9B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{9E93450E-D275-1246-BD36-E4141277D9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Last Name</t>
   </si>
@@ -47,39 +47,6 @@
   </si>
   <si>
     <t>Subject</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>LIEW</t>
-  </si>
-  <si>
-    <t>Yijien Darren</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LIM</t>
-  </si>
-  <si>
-    <t>Ming Kang Ethan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jason Wei</t>
-  </si>
-  <si>
-    <t>LEE</t>
-  </si>
-  <si>
-    <t>Sangmin</t>
-  </si>
-  <si>
-    <t>SHEN</t>
-  </si>
-  <si>
-    <t>Xinyi</t>
   </si>
 </sst>
 </file>
@@ -139,6 +106,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2710422" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845ED851-5AC1-3273-4B65-A8EDBB80AFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="584200"/>
+          <a:ext cx="2710422" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Write your</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> subject name in the red box only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439CAF9C-3E6B-4C44-96A8-655FC9084732}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,64 +502,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>903119</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>903339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>904548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>905625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>906288</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>